--- a/SPPSApi/Doc/Template/FS1704.xlsx
+++ b/SPPSApi/Doc/Template/FS1704.xlsx
@@ -110,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,24 +416,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
